--- a/biology/Zoologie/Gabanellia/Gabanellia.xlsx
+++ b/biology/Zoologie/Gabanellia/Gabanellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabanellia est un genre fossile de poissons à nageoires rayonnées qui ont vécu au cours du Norien du Trias supérieur. Une seule espèce est connue, Gabanellia agilis. Ses restes fossiles ont été mis au jour en Italie.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gabanellia et l'espèce Gabanellia agilis sont décrits en 1996 par les paléontologues et entomologistes italiens Andrea Tintori (d) &amp; Cristina Lombardo (d)[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gabanellia et l'espèce Gabanellia agilis sont décrits en 1996 par les paléontologues et entomologistes italiens Andrea Tintori (d) &amp; Cristina Lombardo (d).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Gabanellia, a été choisi en l'honneur de Révérend Don Giulio Gabanelli, curé de Zogno, pour son soutien continu dans l'exploitation du site fossilifère de cette commune italienne[1].
-L'épithète spécifique dérive du latin agilis, « qui se meut facilement, souple, leste, léger, mobile », et fait référence à sa silhouette élancée et fusiforme[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Gabanellia, a été choisi en l'honneur de Révérend Don Giulio Gabanelli, curé de Zogno, pour son soutien continu dans l'exploitation du site fossilifère de cette commune italienne.
+L'épithète spécifique dérive du latin agilis, « qui se meut facilement, souple, leste, léger, mobile », et fait référence à sa silhouette élancée et fusiforme.
 </t>
         </is>
       </c>
